--- a/CIs for SCRM_20200721.xlsx
+++ b/CIs for SCRM_20200721.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\Takeda\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4AED79-F9FD-4AA6-B838-2ED5BCAE0CCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6496AB26-057D-4A6D-B2CF-CEC82C1B8BAB}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="2"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentManualCount="2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -45,76 +28,52 @@
     <t>Title</t>
   </si>
   <si>
+    <t xml:space="preserve">Business Challenge </t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Solution Type</t>
+  </si>
+  <si>
     <t>Assigned To</t>
   </si>
   <si>
     <t>SCRM-CRM</t>
   </si>
   <si>
+    <t>[Takeda Japan]System access stat reporting for SCRM-CRM(Month summary)</t>
+  </si>
+  <si>
+    <t>System access stat is not visible. Client has to request L2 team for getting the system access log and analyze it manually.</t>
+  </si>
+  <si>
+    <t>Automatically get 3 millions data from dataloader, classify them and draw a bar chart into a pdf.</t>
+  </si>
+  <si>
+    <t>Automatic Report Provider</t>
+  </si>
+  <si>
+    <t>kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;</t>
+  </si>
+  <si>
     <t>SCRM-BI</t>
   </si>
   <si>
-    <t>kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;</t>
-  </si>
-  <si>
-    <t>[Takeda Japan]System access stat reporting for SCRM-CRM(Month summary)</t>
-  </si>
-  <si>
     <t>[Takeda Japan]Market_MM Table</t>
   </si>
   <si>
+    <t>Complex and repeatable work happens 3 times every month. This could be manpower wasting and error prone.</t>
+  </si>
+  <si>
+    <t>Automated most steps such as data import, table operations, evidence collection and sending mail.</t>
+  </si>
+  <si>
+    <t>Data Processor</t>
+  </si>
+  <si>
     <t>[Takeda Japan]CLM Used History Creation Manual</t>
-  </si>
-  <si>
-    <t>[Takeda Japan]MSL &amp; PMS Report Regular Delivery</t>
-  </si>
-  <si>
-    <t>[Takeda Japan]Report Provide Task for BI Team</t>
-  </si>
-  <si>
-    <t>[Takeda Japan]BI-SQL</t>
-  </si>
-  <si>
-    <t>[Takeda Japan]Delivery Online</t>
-  </si>
-  <si>
-    <t>[Takeda Japan]Document Folder Maintenance</t>
-  </si>
-  <si>
-    <t>[Takeda Japan]Sending Of Tracking Data Materials</t>
-  </si>
-  <si>
-    <t>[Takeda Japan]Scrm landing status</t>
-  </si>
-  <si>
-    <t>[Takeda Japan]Salesforce Mail Log Getting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Challenge </t>
-  </si>
-  <si>
-    <t>Solution</t>
-  </si>
-  <si>
-    <t>System access stat is not visible. Client has to request L2 team for getting the system access log and analyze it manually.</t>
-  </si>
-  <si>
-    <t>Automatically process data,make SQL file and Implement SQL</t>
-  </si>
-  <si>
-    <t>Automatic Report Provider</t>
-  </si>
-  <si>
-    <t>Solution Type</t>
-  </si>
-  <si>
-    <t>Complex and repeatable work happens 3 times every month. This could be manpower wasting and error prone.</t>
-  </si>
-  <si>
-    <t>Automated most steps such as data import, table operations, evidence collection and sending mail.</t>
-  </si>
-  <si>
-    <t>Data Processor</t>
   </si>
   <si>
     <t>Downloading file from web site often failed due to environment issues and so on. Need to login to the system and refresh for several times. Processing data manually also dissipate efforts.</t>
@@ -127,22 +86,34 @@
 (WEB)</t>
   </si>
   <si>
+    <t>[Takeda Japan]MSL &amp; PMS Report Regular Delivery</t>
+  </si>
+  <si>
     <t>Downloading file from web site, data processing and sending mail task happened twice per month.</t>
   </si>
   <si>
     <t>Automated repeatable steps in this case.</t>
   </si>
   <si>
+    <t>[Takeda Japan]Report Provide Task for BI Team</t>
+  </si>
+  <si>
     <t>Login to dataloader and download files. Repeatable and simple task.</t>
   </si>
   <si>
     <t>Automated file downloading by searching windows handle.</t>
   </si>
   <si>
-    <t>Fetch attachment from mails,  then insert data into databse.</t>
-  </si>
-  <si>
-    <t>Automated these steps by invoking windows api and db connector .</t>
+    <t>[Takeda Japan]BI-SQL</t>
+  </si>
+  <si>
+    <t>The operator need to wait the client's mail every Monday 8:00 am. Get the attachment and divide it into several data source files by date. Then insert the data into database and send a mail to the client.</t>
+  </si>
+  <si>
+    <t>Monitoring the mailbox and fetch the attachment automatically, divided the data by date and insert into database in the program. Confirm the result and send a mail to client automatically.</t>
+  </si>
+  <si>
+    <t>[Takeda Japan]Delivery Online</t>
   </si>
   <si>
     <t>Connect database, analyse and process data manually.</t>
@@ -151,61 +122,212 @@
     <t>Automated db operations, data analysing and processing.</t>
   </si>
   <si>
+    <t>[Takeda Japan]Document Folder Maintenance</t>
+  </si>
+  <si>
     <t>Login to web site, create and delete folders manually.</t>
   </si>
   <si>
     <t>Automated web operations and report sending process.</t>
   </si>
   <si>
-    <t xml:space="preserve">Automated executing access database, inputing data ,adjusting tables and making ppt </t>
-  </si>
-  <si>
-    <t>Download data from website, process data and generate excel file manually.</t>
-  </si>
-  <si>
-    <t>Automatically download data from website, process data and generate excel file</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Download data from website, process data and upload data manually.</t>
-  </si>
-  <si>
-    <t>Automatically download data from website, process data and upload data</t>
-  </si>
-  <si>
-    <t>Need to login to the salesforce system and get 14 csvs, connect to the access database and deal with  data, then paste the data to excel file and set some values. Copy images from excel to ppt and send it via mailbox.</t>
+    <t>[Takeda Japan]Sending Of Tracking Data Materials</t>
+  </si>
+  <si>
+    <t>Need to login to the salesforce system and get 14 csvs, connect to the access database and deal with  data, then paste the data to excel file and set some values. Copy images from excel to ppt and send it with mailbox.</t>
+  </si>
+  <si>
+    <t>Automated logging into saleforce website and downloading files, connecting access database, fetching and dealing with data, making excel and ppt and sending it with mailbox.</t>
+  </si>
+  <si>
+    <t>[Takeda Japan]Scrm landing status</t>
+  </si>
+  <si>
+    <t>Need to login to the salesforce system and get 3 csvs, copy the data to excel template and deal with the data via macro. Get the final excel and send it with mailbox.</t>
+  </si>
+  <si>
+    <t>Automated logging into saleforce website and downloading files, copying and dealing with data, generating excel and sending it with mailbox.</t>
+  </si>
+  <si>
+    <t>[Takeda Japan]Salesforce Mail Log Getting</t>
+  </si>
+  <si>
+    <t>The operator need to download files from website by date and deal with the data, then upload the file to sharepoint.</t>
+  </si>
+  <si>
+    <t>Automatically download data file from website, process data and upload the file to sharepoint.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +346,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -235,62 +543,301 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -298,40 +845,83 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -413,26 +1003,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -465,23 +1038,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,36 +1179,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A4A63F-82E1-4481-89E9-2343F1AB1799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.85833333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="7.56666666666667" customWidth="1"/>
+    <col min="4" max="4" width="65.8583333333333" customWidth="1"/>
+    <col min="5" max="5" width="46.5666666666667" customWidth="1"/>
     <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5666666666667" customWidth="1"/>
+    <col min="8" max="8" width="38.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="60.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,326 +1217,327 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" ht="45.75" spans="1:8">
+      <c r="A2" s="3">
         <v>2847</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" ht="30.75" spans="1:8">
+      <c r="A3" s="8">
         <v>2423</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" ht="60.75" spans="1:8">
+      <c r="A4" s="8">
         <v>2424</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5">
         <v>2.5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" ht="30.75" spans="1:8">
+      <c r="A5" s="8">
         <v>2425</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" ht="30.75" spans="1:8">
+      <c r="A6" s="8">
         <v>2427</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
         <v>1.5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" ht="60.75" spans="1:8">
+      <c r="A7" s="3">
         <v>2429</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" ht="30.75" spans="1:8">
+      <c r="A8" s="8">
         <v>2430</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" ht="30.75" spans="1:8">
+      <c r="A9" s="8">
         <v>2431</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" ht="60.75" spans="1:8">
+      <c r="A10" s="3">
         <v>2783</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" ht="45.75" spans="1:8">
+      <c r="A11" s="3">
         <v>3015</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>7</v>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" ht="30.75" spans="1:8">
+      <c r="A12" s="3">
         <v>3028</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>7</v>
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="20.1" customHeight="1"/>
+    <row r="14" ht="20.1" customHeight="1"/>
+    <row r="15" ht="20.1" customHeight="1"/>
+    <row r="16" ht="20.1" customHeight="1"/>
+    <row r="17" ht="20.1" customHeight="1"/>
+    <row r="18" ht="20.1" customHeight="1"/>
+    <row r="19" ht="20.1" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="mailto:kavana.jin.li@accenture.com" xr:uid="{63776F10-9A98-4FB8-9278-E59FDA89BDEE}"/>
-    <hyperlink ref="H3" r:id="rId2" display="mailto:kavana.jin.li@accenture.com" xr:uid="{D2729ACA-DFB5-49D0-B453-E98B42D7AD41}"/>
-    <hyperlink ref="H4" r:id="rId3" display="mailto:kavana.jin.li@accenture.com" xr:uid="{803CECDA-69BB-4416-89D9-142E1445DF0F}"/>
-    <hyperlink ref="H5" r:id="rId4" display="mailto:kavana.jin.li@accenture.com" xr:uid="{555B4EAF-D460-445F-9CFD-C0A485DA38A7}"/>
-    <hyperlink ref="H6" r:id="rId5" display="mailto:kavana.jin.li@accenture.com" xr:uid="{B4E1B4A9-F781-4B86-B15F-A4C82F3CD927}"/>
-    <hyperlink ref="H7" r:id="rId6" display="mailto:kavana.jin.li@accenture.com" xr:uid="{BCD33D50-8C0B-4DE5-884D-137CCAEFCDE4}"/>
-    <hyperlink ref="H8" r:id="rId7" display="mailto:kavana.jin.li@accenture.com" xr:uid="{02BA943D-67A5-4487-BA96-6DDE6AB93477}"/>
-    <hyperlink ref="H9" r:id="rId8" display="mailto:kavana.jin.li@accenture.com" xr:uid="{AD02E00C-B5AA-4BED-9EDA-2D6097B55560}"/>
-    <hyperlink ref="H10" r:id="rId9" display="mailto:kavana.jin.li@accenture.com" xr:uid="{FB707AF5-CC5F-4C01-A5CE-05E1D92C860F}"/>
-    <hyperlink ref="H11" r:id="rId10" display="mailto:kavana.jin.li@accenture.com" xr:uid="{037B42A0-FA3E-4D57-BD6D-986D578010AF}"/>
-    <hyperlink ref="H12" r:id="rId11" display="mailto:kavana.jin.li@accenture.com" xr:uid="{B1A697A0-08A3-4BAE-9AC4-0390F305F5C4}"/>
+    <hyperlink ref="H2" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H3" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H4" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H5" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H6" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H7" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H8" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H9" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H10" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H11" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
+    <hyperlink ref="H12" r:id="rId1" display="kavana Jin Li &lt;kavana.jin.li@accenture.com&gt;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/CIs for SCRM_20200721.xlsx
+++ b/CIs for SCRM_20200721.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E77899-0366-4B70-B3CE-8D35536DBFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5BE20B-E1DC-41F9-BD32-4FDA48C8D848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -175,13 +173,38 @@
   </si>
   <si>
     <t>Monitoring the mailbox and fetch the attachment automatically, divide the data by date and insert into database in the program. Confirm the result and send a mail to client automatically.</t>
+  </si>
+  <si>
+    <t>担当</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ticket</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>haixuan.wang</t>
+  </si>
+  <si>
+    <t>huijuan.cao</t>
+  </si>
+  <si>
+    <t>xing.gao1</t>
+  </si>
+  <si>
+    <t>haixuan.wang</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>废止2</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,15 +216,29 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -283,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -307,6 +344,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -585,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +642,7 @@
     <col min="8" max="8" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75">
+    <row r="1" spans="1:10" ht="75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +667,14 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
+      <c r="I1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="7">
         <v>2847</v>
       </c>
@@ -652,8 +699,9 @@
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="45">
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="45">
       <c r="A3" s="7">
         <v>2423</v>
       </c>
@@ -678,8 +726,14 @@
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="60">
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60">
       <c r="A4" s="7">
         <v>2424</v>
       </c>
@@ -704,8 +758,14 @@
       <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="7">
         <v>2425</v>
       </c>
@@ -730,8 +790,14 @@
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="7">
         <v>2427</v>
       </c>
@@ -756,8 +822,11 @@
       <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="75">
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75">
       <c r="A7" s="7">
         <v>2429</v>
       </c>
@@ -783,7 +852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45">
+    <row r="8" spans="1:10" ht="45">
       <c r="A8" s="7">
         <v>2430</v>
       </c>
@@ -808,8 +877,14 @@
       <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="7">
         <v>2431</v>
       </c>
@@ -834,8 +909,14 @@
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="75">
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75">
       <c r="A10" s="7">
         <v>2783</v>
       </c>
@@ -860,8 +941,14 @@
       <c r="H10" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="60">
+      <c r="I10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60">
       <c r="A11" s="7">
         <v>3015</v>
       </c>
@@ -886,8 +973,14 @@
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="45">
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45">
       <c r="A12" s="7">
         <v>3028</v>
       </c>
@@ -912,16 +1005,20 @@
       <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+      <c r="J12" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1"/>
     <row r="17" ht="20.100000000000001" customHeight="1"/>
     <row r="18" ht="20.100000000000001" customHeight="1"/>
     <row r="19" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:H12" xr:uid="{7AEA6568-143E-43B3-B0B3-B7A338008E58}"/>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
